--- a/Excel/UnitConfig.xlsx
+++ b/Excel/UnitConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\weijingHot\trunk_2021_0808\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5957C2-7482-4F34-AA14-4DFAD559E101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BFD37E-3712-4F8A-8C6E-CE1678DD986F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27270" yWindow="1365" windowWidth="25845" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>#</t>
   </si>
@@ -67,10 +67,23 @@
     <t>米克尔</t>
   </si>
   <si>
+    <t>Weight</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>带有强力攻击技能</t>
-  </si>
-  <si>
-    <t>Weight</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sex</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -447,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:I6"/>
+  <dimension ref="C2:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -460,19 +473,19 @@
     <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.125" style="2" customWidth="1"/>
     <col min="5" max="5" width="9.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="28.75" style="2" customWidth="1"/>
-    <col min="7" max="7" width="7.875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="19.5" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="6" max="7" width="28.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7.875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="19.5" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:10" x14ac:dyDescent="0.3">
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -486,16 +499,19 @@
         <v>4</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
@@ -507,16 +523,19 @@
         <v>9</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>16</v>
+      <c r="J4" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
@@ -528,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>12</v>
@@ -536,8 +555,11 @@
       <c r="I5" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="J5" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" spans="3:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C6" s="1">
         <v>1001</v>
       </c>
@@ -548,21 +570,24 @@
         <v>14</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="1">
+        <v>16</v>
+      </c>
+      <c r="G6" s="4">
         <v>1</v>
       </c>
       <c r="H6" s="1">
-        <v>178</v>
+        <v>1</v>
       </c>
       <c r="I6" s="1">
-        <v>68</v>
+        <v>180</v>
+      </c>
+      <c r="J6" s="1">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>